--- a/public/Sample_assessments_match.xlsx
+++ b/public/Sample_assessments_match.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slicecarving\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>Easy</t>
   </si>
@@ -204,12 +209,30 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>question_type_three</t>
+  </si>
+  <si>
+    <t>question_name</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>all</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -247,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -256,6 +279,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,7 +611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -590,256 +619,288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="15.875" customWidth="1"/>
-    <col min="15" max="15" width="24.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.8984375" customWidth="1"/>
+    <col min="3" max="3" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="15.8984375" customWidth="1"/>
+    <col min="16" max="16" width="7.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.09765625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1">
+    <row r="1" spans="1:17" s="3" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="Q1" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="Q2" s="5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="Q3" s="5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="Q4" s="5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/public/Sample_assessments_match.xlsx
+++ b/public/Sample_assessments_match.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slicecarving\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>Easy</t>
   </si>
@@ -209,30 +204,12 @@
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>question_type_three</t>
-  </si>
-  <si>
-    <t>question_name</t>
-  </si>
-  <si>
-    <t>general</t>
-  </si>
-  <si>
-    <t>Place</t>
-  </si>
-  <si>
-    <t>history</t>
-  </si>
-  <si>
-    <t>all</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -270,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,12 +256,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,7 +582,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -619,288 +590,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.8984375" customWidth="1"/>
-    <col min="3" max="3" width="24.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="15.8984375" customWidth="1"/>
-    <col min="16" max="16" width="7.296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.09765625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="15.875" customWidth="1"/>
+    <col min="15" max="15" width="24.125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1">
+    <row r="1" spans="1:15" s="3" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L2" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" s="5">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="L3" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="5">
-        <v>3</v>
-      </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="L4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="O4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="5">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="K5" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="L5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="N5" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
